--- a/p4_p5_p123_pnames2_goarchive.xlsx
+++ b/p4_p5_p123_pnames2_goarchive.xlsx
@@ -58,7 +58,7 @@
     <t>periode</t>
   </si>
   <si>
-    <t>name_2</t>
+    <t>name_3</t>
   </si>
   <si>
     <t>fff</t>
@@ -70,7 +70,7 @@
     <t>3D451C51-823B-4F35-83CF-BD9F642012D9</t>
   </si>
   <si>
-    <t>name_3</t>
+    <t>name_5</t>
   </si>
   <si>
     <t>gg</t>

--- a/p4_p5_p123_pnames2_goarchive.xlsx
+++ b/p4_p5_p123_pnames2_goarchive.xlsx
@@ -58,7 +58,7 @@
     <t>periode</t>
   </si>
   <si>
-    <t>name_3</t>
+    <t>name_1</t>
   </si>
   <si>
     <t>fff</t>
@@ -70,7 +70,7 @@
     <t>3D451C51-823B-4F35-83CF-BD9F642012D9</t>
   </si>
   <si>
-    <t>name_5</t>
+    <t>name_4</t>
   </si>
   <si>
     <t>gg</t>

--- a/p4_p5_p123_pnames2_goarchive.xlsx
+++ b/p4_p5_p123_pnames2_goarchive.xlsx
@@ -58,7 +58,7 @@
     <t>periode</t>
   </si>
   <si>
-    <t>name_1</t>
+    <t>name_5</t>
   </si>
   <si>
     <t>fff</t>
@@ -70,7 +70,7 @@
     <t>3D451C51-823B-4F35-83CF-BD9F642012D9</t>
   </si>
   <si>
-    <t>name_4</t>
+    <t>name_6</t>
   </si>
   <si>
     <t>gg</t>

--- a/p4_p5_p123_pnames2_goarchive.xlsx
+++ b/p4_p5_p123_pnames2_goarchive.xlsx
@@ -58,7 +58,7 @@
     <t>periode</t>
   </si>
   <si>
-    <t>name_5</t>
+    <t>name_2</t>
   </si>
   <si>
     <t>fff</t>
@@ -70,7 +70,7 @@
     <t>3D451C51-823B-4F35-83CF-BD9F642012D9</t>
   </si>
   <si>
-    <t>name_6</t>
+    <t>name_4</t>
   </si>
   <si>
     <t>gg</t>
